--- a/data/trans_orig/DC-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/DC-Dificultad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>133047</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>113926</v>
+        <v>113610</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>152295</v>
+        <v>152029</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.227765929990224</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1950308360586661</v>
+        <v>0.1944914527594487</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2607153191796354</v>
+        <v>0.260260289536265</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>275</v>
@@ -765,19 +765,19 @@
         <v>280435</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>251266</v>
+        <v>252443</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>309247</v>
+        <v>308096</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3040493207052347</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2724247059321299</v>
+        <v>0.2737005524450394</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3352882841753623</v>
+        <v>0.3340403116274283</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>411</v>
@@ -786,19 +786,19 @@
         <v>413482</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>380447</v>
+        <v>381208</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>451866</v>
+        <v>451845</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2744701369896131</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2525415667404424</v>
+        <v>0.253046556297048</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2999494197055356</v>
+        <v>0.2999354848289021</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>451094</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>431846</v>
+        <v>432112</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>470215</v>
+        <v>470531</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.772234070009776</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7392846808203646</v>
+        <v>0.7397397104637348</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8049691639413339</v>
+        <v>0.805508547240551</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>610</v>
@@ -836,19 +836,19 @@
         <v>641898</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>613086</v>
+        <v>614237</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>671067</v>
+        <v>669890</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6959506792947653</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6647117158246377</v>
+        <v>0.6659596883725717</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.72757529406787</v>
+        <v>0.7262994475549606</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1048</v>
@@ -857,19 +857,19 @@
         <v>1092992</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1054608</v>
+        <v>1054629</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1126027</v>
+        <v>1125266</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7255298630103869</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7000505802944644</v>
+        <v>0.7000645151710978</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7474584332595575</v>
+        <v>0.746953443702952</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>192951</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>169149</v>
+        <v>169397</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>218905</v>
+        <v>219462</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.179007570144552</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1569254933946785</v>
+        <v>0.1571559423056087</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.203085931534929</v>
+        <v>0.2036029052197418</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>305</v>
@@ -982,19 +982,19 @@
         <v>311849</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>281328</v>
+        <v>286260</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>341356</v>
+        <v>344524</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2948819330981115</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2660217847146216</v>
+        <v>0.270685149201697</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3227838993189832</v>
+        <v>0.325779346289008</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>502</v>
@@ -1003,19 +1003,19 @@
         <v>504800</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>467856</v>
+        <v>465053</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>543679</v>
+        <v>545890</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2363924648000228</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2190918158755176</v>
+        <v>0.2177795031317004</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2545990004221164</v>
+        <v>0.2556344987757806</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>884943</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>858989</v>
+        <v>858432</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>908745</v>
+        <v>908497</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.820992429855448</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.796914068465071</v>
+        <v>0.7963970947802582</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8430745066053216</v>
+        <v>0.8428440576943912</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>723</v>
@@ -1053,19 +1053,19 @@
         <v>745689</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>716182</v>
+        <v>713014</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>776210</v>
+        <v>771278</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7051180669018885</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6772161006810168</v>
+        <v>0.6742206537109909</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7339782152853783</v>
+        <v>0.7293148507983029</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1581</v>
@@ -1074,19 +1074,19 @@
         <v>1630632</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1591753</v>
+        <v>1589542</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1667576</v>
+        <v>1670379</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7636075351999771</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7454009995778836</v>
+        <v>0.7443655012242196</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7809081841244825</v>
+        <v>0.7822204968682995</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>158257</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>136084</v>
+        <v>136254</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>181816</v>
+        <v>182515</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1411001774138494</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1213308349956675</v>
+        <v>0.1214821246917888</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1621046975653825</v>
+        <v>0.1627281868290822</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>222</v>
@@ -1199,19 +1199,19 @@
         <v>224827</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>200544</v>
+        <v>199374</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>250872</v>
+        <v>251876</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2261976601593573</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2017662588292054</v>
+        <v>0.2005896940480475</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2524012989110386</v>
+        <v>0.2534112648990094</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>382</v>
@@ -1220,19 +1220,19 @@
         <v>383084</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>350703</v>
+        <v>347358</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>419734</v>
+        <v>420030</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1810814602225291</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1657753040208403</v>
+        <v>0.1641939179608204</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1984055745925155</v>
+        <v>0.1985454729255278</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>963337</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>939778</v>
+        <v>939079</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>985510</v>
+        <v>985340</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8588998225861506</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8378953024346175</v>
+        <v>0.8372718131709178</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8786691650043326</v>
+        <v>0.8785178753082111</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>760</v>
@@ -1270,19 +1270,19 @@
         <v>769113</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>743068</v>
+        <v>742064</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>793396</v>
+        <v>794566</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7738023398406427</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7475987010889613</v>
+        <v>0.7465887351009902</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7982337411707943</v>
+        <v>0.7994103059519524</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1703</v>
@@ -1291,19 +1291,19 @@
         <v>1732450</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1695800</v>
+        <v>1695504</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1764831</v>
+        <v>1768176</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8189185397774709</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8015944254074844</v>
+        <v>0.8014545270744722</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8342246959791596</v>
+        <v>0.8358060820391795</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>77371</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>61410</v>
+        <v>62432</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>94868</v>
+        <v>94928</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.173011023210015</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1373200314425893</v>
+        <v>0.1396065482087967</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2121374175860885</v>
+        <v>0.2122717303058818</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>105</v>
@@ -1416,19 +1416,19 @@
         <v>105582</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>89995</v>
+        <v>89587</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>122755</v>
+        <v>123012</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3094821198195309</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2637919982844554</v>
+        <v>0.2625975303620947</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3598183619751599</v>
+        <v>0.3605728103407012</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>181</v>
@@ -1437,19 +1437,19 @@
         <v>182953</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>161771</v>
+        <v>160466</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>208306</v>
+        <v>207770</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2320682517665675</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2051998871674224</v>
+        <v>0.2035450501286243</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.264227592338605</v>
+        <v>0.2635473746557373</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>369829</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>352332</v>
+        <v>352272</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>385790</v>
+        <v>384768</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.826988976789985</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7878625824139113</v>
+        <v>0.7877282696941181</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8626799685574098</v>
+        <v>0.8603934517912033</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>234</v>
@@ -1487,19 +1487,19 @@
         <v>235576</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>218403</v>
+        <v>218146</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>251163</v>
+        <v>251571</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6905178801804691</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6401816380248401</v>
+        <v>0.6394271896592989</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7362080017155447</v>
+        <v>0.7374024696379053</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>594</v>
@@ -1508,19 +1508,19 @@
         <v>605405</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>580052</v>
+        <v>580588</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>626587</v>
+        <v>627892</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7679317482334326</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.735772407661395</v>
+        <v>0.7364526253442627</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7948001128325776</v>
+        <v>0.7964549498713758</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>561626</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>521567</v>
+        <v>520260</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>608919</v>
+        <v>605511</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1738334816563689</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.161434525776594</v>
+        <v>0.1610298053145051</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1884715042791409</v>
+        <v>0.1874167170674384</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>907</v>
@@ -1633,19 +1633,19 @@
         <v>922693</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>868244</v>
+        <v>867752</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>968805</v>
+        <v>976363</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2783413037093349</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2619162188237191</v>
+        <v>0.2617676072854739</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2922515798859512</v>
+        <v>0.2945315628322742</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1476</v>
@@ -1654,19 +1654,19 @@
         <v>1484319</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1420801</v>
+        <v>1413964</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1555922</v>
+        <v>1547274</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2267590631497163</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2170554967481092</v>
+        <v>0.2160110114477404</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2376978511594039</v>
+        <v>0.236376742531578</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>2669203</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2621910</v>
+        <v>2625318</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2709262</v>
+        <v>2710569</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8261665183436312</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8115284957208591</v>
+        <v>0.8125832829325617</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8385654742234059</v>
+        <v>0.8389701946854949</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2327</v>
@@ -1704,19 +1704,19 @@
         <v>2392276</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2346164</v>
+        <v>2338606</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2446725</v>
+        <v>2447217</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7216586962906651</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7077484201140485</v>
+        <v>0.7054684371677257</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7380837811762807</v>
+        <v>0.738232392714526</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>4926</v>
@@ -1725,19 +1725,19 @@
         <v>5061479</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>4989876</v>
+        <v>4998524</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>5124997</v>
+        <v>5131834</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7732409368502837</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7623021488405961</v>
+        <v>0.763623257468422</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7829445032518905</v>
+        <v>0.7839889885522596</v>
       </c>
     </row>
     <row r="18">
@@ -2069,19 +2069,19 @@
         <v>117527</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>98717</v>
+        <v>98146</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>139281</v>
+        <v>141735</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1125806506557221</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.09456195099511605</v>
+        <v>0.09401554183909502</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1334189490767546</v>
+        <v>0.1357703742411957</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>267</v>
@@ -2090,19 +2090,19 @@
         <v>288962</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>261477</v>
+        <v>257608</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>319850</v>
+        <v>318000</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2580187212553967</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2334763519226146</v>
+        <v>0.2300222723953813</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2855989287213839</v>
+        <v>0.2839470558432824</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>376</v>
@@ -2111,19 +2111,19 @@
         <v>406489</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>368627</v>
+        <v>371596</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>442735</v>
+        <v>447559</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1878535342811735</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1703561242780307</v>
+        <v>0.1717279302590972</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2046038144158982</v>
+        <v>0.2068334514638118</v>
       </c>
     </row>
     <row r="5">
@@ -2140,19 +2140,19 @@
         <v>926408</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>904654</v>
+        <v>902200</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>945218</v>
+        <v>945789</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8874193493442779</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8665810509232451</v>
+        <v>0.864229625758804</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9054380490048838</v>
+        <v>0.9059844581609044</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>764</v>
@@ -2161,19 +2161,19 @@
         <v>830966</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>800078</v>
+        <v>801928</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>858451</v>
+        <v>862320</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7419812787446033</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7144010712786161</v>
+        <v>0.7160529441567176</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7665236480773854</v>
+        <v>0.7699777276046187</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1633</v>
@@ -2182,19 +2182,19 @@
         <v>1757374</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1721128</v>
+        <v>1716304</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1795236</v>
+        <v>1792267</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8121464657188265</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7953961855841017</v>
+        <v>0.793166548536188</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8296438757219694</v>
+        <v>0.8282720697409027</v>
       </c>
     </row>
     <row r="6">
@@ -2286,19 +2286,19 @@
         <v>102279</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>85337</v>
+        <v>84445</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>124207</v>
+        <v>124327</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1046786088931863</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.08733917352296219</v>
+        <v>0.0864261263649047</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1271211350306261</v>
+        <v>0.1272443784960097</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>262</v>
@@ -2307,19 +2307,19 @@
         <v>277614</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>249313</v>
+        <v>249945</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>307094</v>
+        <v>308073</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2536996402725786</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.227837037143168</v>
+        <v>0.228414027034399</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2806401788315088</v>
+        <v>0.2815348955244378</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>359</v>
@@ -2328,19 +2328,19 @@
         <v>379893</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>343037</v>
+        <v>345653</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>414366</v>
+        <v>416814</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1834046864088326</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1656113968486004</v>
+        <v>0.1668745226151068</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2000475758091746</v>
+        <v>0.2012295193665803</v>
       </c>
     </row>
     <row r="8">
@@ -2357,19 +2357,19 @@
         <v>874794</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>852866</v>
+        <v>852746</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>891736</v>
+        <v>892628</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8953213911068136</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8728788649693741</v>
+        <v>0.8727556215039903</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9126608264770379</v>
+        <v>0.9135738736350952</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>758</v>
@@ -2378,19 +2378,19 @@
         <v>816648</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>787168</v>
+        <v>786189</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>844949</v>
+        <v>844317</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7463003597274214</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7193598211684912</v>
+        <v>0.7184651044755621</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7721629628568318</v>
+        <v>0.7715859729656008</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1585</v>
@@ -2399,19 +2399,19 @@
         <v>1691442</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1656969</v>
+        <v>1654521</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1728298</v>
+        <v>1725682</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8165953135911673</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7999524241908254</v>
+        <v>0.7987704806334198</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8343886031513996</v>
+        <v>0.8331254773848935</v>
       </c>
     </row>
     <row r="9">
@@ -2503,19 +2503,19 @@
         <v>89783</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>73304</v>
+        <v>72028</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>108182</v>
+        <v>109561</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1014368840575841</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.08281807517506558</v>
+        <v>0.08137739603672159</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1222236054308588</v>
+        <v>0.123781899570274</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>168</v>
@@ -2524,19 +2524,19 @@
         <v>180457</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>155545</v>
+        <v>157552</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>202801</v>
+        <v>208007</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2060488983197882</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1776043197334407</v>
+        <v>0.1798959736960838</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2315617042212036</v>
+        <v>0.2375062054441897</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>252</v>
@@ -2545,19 +2545,19 @@
         <v>270240</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>240529</v>
+        <v>239183</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>299498</v>
+        <v>302613</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1534660704024406</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.136593537070374</v>
+        <v>0.1358291384993803</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1700815295202128</v>
+        <v>0.1718500793632594</v>
       </c>
     </row>
     <row r="11">
@@ -2574,19 +2574,19 @@
         <v>795332</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>776933</v>
+        <v>775554</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>811811</v>
+        <v>813087</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8985631159424159</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8777763945691411</v>
+        <v>0.8762181004297257</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9171819248249341</v>
+        <v>0.9186226039632784</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>653</v>
@@ -2595,19 +2595,19 @@
         <v>695339</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>672995</v>
+        <v>667789</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>720251</v>
+        <v>718244</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7939511016802118</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7684382957787961</v>
+        <v>0.7624937945558097</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8223956802665591</v>
+        <v>0.8201040263039161</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1399</v>
@@ -2616,19 +2616,19 @@
         <v>1490671</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1461413</v>
+        <v>1458298</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1520382</v>
+        <v>1521728</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8465339295975594</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8299184704797872</v>
+        <v>0.8281499206367402</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8634064629296256</v>
+        <v>0.8641708615006195</v>
       </c>
     </row>
     <row r="12">
@@ -2720,19 +2720,19 @@
         <v>43591</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>32953</v>
+        <v>32450</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>58989</v>
+        <v>59032</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.08665771351126385</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.06551016200248229</v>
+        <v>0.06451069437873412</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1172690169062135</v>
+        <v>0.1173545290059865</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>83</v>
@@ -2741,19 +2741,19 @@
         <v>93878</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>76870</v>
+        <v>76541</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>112716</v>
+        <v>113667</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2073566047852985</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1697907678564012</v>
+        <v>0.1690640277009551</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2489652367374328</v>
+        <v>0.2510659936554042</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>124</v>
@@ -2762,19 +2762,19 @@
         <v>137468</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>116216</v>
+        <v>115607</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>160359</v>
+        <v>161838</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1438318820410591</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1215958836013713</v>
+        <v>0.1209581308777084</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1677824755818075</v>
+        <v>0.1693299723335799</v>
       </c>
     </row>
     <row r="14">
@@ -2791,19 +2791,19 @@
         <v>459432</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>444034</v>
+        <v>443991</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>470070</v>
+        <v>470573</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9133422864887362</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8827309830937865</v>
+        <v>0.8826454709940135</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9344898379975176</v>
+        <v>0.9354893056212659</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>329</v>
@@ -2812,19 +2812,19 @@
         <v>358858</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>340020</v>
+        <v>339069</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>375866</v>
+        <v>376195</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7926433952147015</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7510347632625676</v>
+        <v>0.7489340063445954</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8302092321435989</v>
+        <v>0.8309359722990448</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>749</v>
@@ -2833,19 +2833,19 @@
         <v>818290</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>795399</v>
+        <v>793920</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>839542</v>
+        <v>840151</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8561681179589409</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8322175244181923</v>
+        <v>0.8306700276664204</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8784041163986286</v>
+        <v>0.879041869122292</v>
       </c>
     </row>
     <row r="15">
@@ -2937,19 +2937,19 @@
         <v>353180</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>320601</v>
+        <v>320624</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>394370</v>
+        <v>393719</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1035976924666809</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.09404133940447398</v>
+        <v>0.09404813136081133</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1156801573358178</v>
+        <v>0.1154890375603069</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>780</v>
@@ -2958,19 +2958,19 @@
         <v>840911</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>787927</v>
+        <v>795165</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>890907</v>
+        <v>894409</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2373629370841878</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2224072616172189</v>
+        <v>0.2244501813358664</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2514753823828496</v>
+        <v>0.2524638348939772</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1111</v>
@@ -2979,19 +2979,19 @@
         <v>1194090</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1125001</v>
+        <v>1131570</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1264057</v>
+        <v>1254017</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1717654298899993</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1618271745315938</v>
+        <v>0.1627720533136717</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1818299221739298</v>
+        <v>0.1803855980305168</v>
       </c>
     </row>
     <row r="17">
@@ -3008,19 +3008,19 @@
         <v>3055965</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3014775</v>
+        <v>3015426</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3088544</v>
+        <v>3088521</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8964023075333192</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8843198426641821</v>
+        <v>0.8845109624396927</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.905958660595526</v>
+        <v>0.9059518686391882</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2504</v>
@@ -3029,19 +3029,19 @@
         <v>2701811</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2651815</v>
+        <v>2648313</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2754795</v>
+        <v>2747557</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7626370629158122</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7485246176171504</v>
+        <v>0.7475361651060226</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7775927383827809</v>
+        <v>0.7755498186641336</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>5366</v>
@@ -3050,19 +3050,19 @@
         <v>5757777</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>5687810</v>
+        <v>5697850</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>5826866</v>
+        <v>5820297</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8282345701100008</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8181700778260702</v>
+        <v>0.8196144019694832</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8381728254684063</v>
+        <v>0.8372279466863284</v>
       </c>
     </row>
     <row r="18">
@@ -3394,19 +3394,19 @@
         <v>131024</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>109920</v>
+        <v>109508</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>153028</v>
+        <v>156074</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1161566202016201</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.09744706550012817</v>
+        <v>0.09708151148310491</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1356634690413976</v>
+        <v>0.1383634100349556</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>245</v>
@@ -3415,19 +3415,19 @@
         <v>267191</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>239240</v>
+        <v>237554</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>299297</v>
+        <v>296744</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2121304291430541</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1899391043231415</v>
+        <v>0.1886004031318471</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2376200484603696</v>
+        <v>0.2355932199722574</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>370</v>
@@ -3436,19 +3436,19 @@
         <v>398216</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>364257</v>
+        <v>362476</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>439239</v>
+        <v>440132</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1667877858858013</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.152564529242825</v>
+        <v>0.1518187936464565</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1839697881455956</v>
+        <v>0.1843438916365136</v>
       </c>
     </row>
     <row r="5">
@@ -3465,19 +3465,19 @@
         <v>996973</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>974969</v>
+        <v>971923</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1018077</v>
+        <v>1018489</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8838433797983799</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8643365309586023</v>
+        <v>0.8616365899650444</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9025529344998718</v>
+        <v>0.902918488516895</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>943</v>
@@ -3486,19 +3486,19 @@
         <v>992370</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>960264</v>
+        <v>962817</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1020321</v>
+        <v>1022007</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.787869570856946</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7623799515396305</v>
+        <v>0.7644067800277428</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8100608956768586</v>
+        <v>0.8113995968681529</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1884</v>
@@ -3507,19 +3507,19 @@
         <v>1989342</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1948319</v>
+        <v>1947426</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2023301</v>
+        <v>2025082</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8332122141141988</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8160302118544044</v>
+        <v>0.8156561083634863</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.847435470757175</v>
+        <v>0.8481812063535435</v>
       </c>
     </row>
     <row r="6">
@@ -3611,19 +3611,19 @@
         <v>88583</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>72668</v>
+        <v>71743</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>108804</v>
+        <v>107454</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.09746983383657186</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.0799586669987849</v>
+        <v>0.07894066096127811</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1197193167090324</v>
+        <v>0.1182334471806767</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>174</v>
@@ -3632,19 +3632,19 @@
         <v>190733</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>166968</v>
+        <v>166055</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>219575</v>
+        <v>217135</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1895055564028967</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1658942741469541</v>
+        <v>0.1649862552322169</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2181625864718946</v>
+        <v>0.2157382290946234</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>262</v>
@@ -3653,19 +3653,19 @@
         <v>279316</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>249596</v>
+        <v>249853</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>316136</v>
+        <v>309862</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1458338903910263</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1303168647057366</v>
+        <v>0.1304511882054241</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1650583169511999</v>
+        <v>0.1617824899119454</v>
       </c>
     </row>
     <row r="8">
@@ -3682,19 +3682,19 @@
         <v>820242</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>800021</v>
+        <v>801371</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>836157</v>
+        <v>837082</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9025301661634282</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8802806832909675</v>
+        <v>0.8817665528193225</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9200413330012149</v>
+        <v>0.9210593390387218</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>777</v>
@@ -3703,19 +3703,19 @@
         <v>815742</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>786900</v>
+        <v>789340</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>839507</v>
+        <v>840420</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8104944435971033</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7818374135281053</v>
+        <v>0.7842617709053767</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8341057258530458</v>
+        <v>0.8350137447677832</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1570</v>
@@ -3724,19 +3724,19 @@
         <v>1635984</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1599164</v>
+        <v>1605438</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1665704</v>
+        <v>1665447</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8541661096089737</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8349416830488</v>
+        <v>0.8382175100880548</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8696831352942633</v>
+        <v>0.869548811794576</v>
       </c>
     </row>
     <row r="9">
@@ -3828,19 +3828,19 @@
         <v>59166</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>45212</v>
+        <v>43644</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>74986</v>
+        <v>75682</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.07182408253827907</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.05488475905523042</v>
+        <v>0.05298192148641694</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.09102852633687948</v>
+        <v>0.09187444069177907</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>97</v>
@@ -3849,19 +3849,19 @@
         <v>106545</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>88299</v>
+        <v>88422</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>127604</v>
+        <v>130005</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1381794891231085</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1145161451741035</v>
+        <v>0.1146762911359563</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1654913032619447</v>
+        <v>0.1686053091632976</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>153</v>
@@ -3870,19 +3870,19 @@
         <v>165710</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>142976</v>
+        <v>143241</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>194898</v>
+        <v>196486</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1039054320314985</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.08965021644361607</v>
+        <v>0.08981659356621007</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1222069395624426</v>
+        <v>0.1232027999949826</v>
       </c>
     </row>
     <row r="11">
@@ -3899,19 +3899,19 @@
         <v>764593</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>748773</v>
+        <v>748077</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>778547</v>
+        <v>780115</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9281759174617209</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9089714736631205</v>
+        <v>0.9081255593082201</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9451152409447695</v>
+        <v>0.9470180785135827</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>631</v>
@@ -3920,19 +3920,19 @@
         <v>664514</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>643455</v>
+        <v>641054</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>682760</v>
+        <v>682637</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8618205108768915</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8345086967380553</v>
+        <v>0.8313946908367025</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8854838548258965</v>
+        <v>0.8853237088640439</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1362</v>
@@ -3941,19 +3941,19 @@
         <v>1429108</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1399920</v>
+        <v>1398332</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1451842</v>
+        <v>1451577</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8960945679685015</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8777930604375573</v>
+        <v>0.8767972000050174</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9103497835563839</v>
+        <v>0.9101834064337899</v>
       </c>
     </row>
     <row r="12">
@@ -4045,19 +4045,19 @@
         <v>40747</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>29005</v>
+        <v>29155</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>55940</v>
+        <v>54019</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.08041622704412654</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.05724345010137794</v>
+        <v>0.05753874958609352</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1103994463004515</v>
+        <v>0.1066085560934323</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>73</v>
@@ -4066,19 +4066,19 @@
         <v>80786</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>63920</v>
+        <v>63965</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>98098</v>
+        <v>99215</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.16497191206382</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1305300331690763</v>
+        <v>0.1306212426025906</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2003226527852569</v>
+        <v>0.2026042684393893</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>109</v>
@@ -4087,19 +4087,19 @@
         <v>121533</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>101789</v>
+        <v>101273</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>146917</v>
+        <v>142656</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1219726062419182</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1021568303264729</v>
+        <v>0.1016391047740794</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1474479937937346</v>
+        <v>0.1431719015056661</v>
       </c>
     </row>
     <row r="14">
@@ -4116,19 +4116,19 @@
         <v>465954</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>450761</v>
+        <v>452682</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>477696</v>
+        <v>477546</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9195837729558735</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8896005536995486</v>
+        <v>0.8933914439065676</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9427565498986223</v>
+        <v>0.9424612504139065</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>382</v>
@@ -4137,19 +4137,19 @@
         <v>408912</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>391600</v>
+        <v>390483</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>425778</v>
+        <v>425733</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.83502808793618</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.799677347214743</v>
+        <v>0.7973957315606104</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8694699668309237</v>
+        <v>0.8693787573974093</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>817</v>
@@ -4158,19 +4158,19 @@
         <v>874865</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>849481</v>
+        <v>853742</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>894609</v>
+        <v>895125</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8780273937580818</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8525520062062655</v>
+        <v>0.8568280984943339</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8978431696735272</v>
+        <v>0.8983608952259208</v>
       </c>
     </row>
     <row r="15">
@@ -4262,19 +4262,19 @@
         <v>319520</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>288373</v>
+        <v>286665</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>354714</v>
+        <v>354564</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.09488960375658172</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.08563977586889551</v>
+        <v>0.08513238122529983</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.105341488814768</v>
+        <v>0.1052966959500263</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>589</v>
@@ -4283,19 +4283,19 @@
         <v>645255</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>598466</v>
+        <v>600212</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>695744</v>
+        <v>691574</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1829579415173101</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1696913376984774</v>
+        <v>0.1701864492561549</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1972738261329617</v>
+        <v>0.1960915433196841</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>894</v>
@@ -4304,19 +4304,19 @@
         <v>964775</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>903626</v>
+        <v>908162</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1027430</v>
+        <v>1028740</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1399426033422363</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1310728054238395</v>
+        <v>0.1317307808357081</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1490308134823446</v>
+        <v>0.1492208461325207</v>
       </c>
     </row>
     <row r="17">
@@ -4333,19 +4333,19 @@
         <v>3047762</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3012568</v>
+        <v>3012718</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3078909</v>
+        <v>3080617</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9051103962434183</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.894658511185232</v>
+        <v>0.8947033040499736</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9143602241311044</v>
+        <v>0.9148676187747001</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2733</v>
@@ -4354,19 +4354,19 @@
         <v>2881537</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2831048</v>
+        <v>2835218</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2928326</v>
+        <v>2926580</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.81704205848269</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8027261738670383</v>
+        <v>0.8039084566803157</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8303086623015227</v>
+        <v>0.8298135507438451</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>5633</v>
@@ -4375,19 +4375,19 @@
         <v>5929300</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>5866645</v>
+        <v>5865335</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>5990449</v>
+        <v>5985913</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8600573966577637</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8509691865176552</v>
+        <v>0.8507791538674798</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8689271945761604</v>
+        <v>0.8682692191642921</v>
       </c>
     </row>
     <row r="18">
@@ -4719,19 +4719,19 @@
         <v>158810</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>136575</v>
+        <v>136482</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>180779</v>
+        <v>180543</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3184240647599602</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2738397152561683</v>
+        <v>0.2736537875255302</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3624724969471886</v>
+        <v>0.3619981574034017</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>451</v>
@@ -4740,19 +4740,19 @@
         <v>296883</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>275802</v>
+        <v>275354</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>320683</v>
+        <v>320517</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4760941948294274</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4422874088678468</v>
+        <v>0.4415693240965901</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.514261870352126</v>
+        <v>0.5139945387122665</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>622</v>
@@ -4761,19 +4761,19 @@
         <v>455694</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>423748</v>
+        <v>425005</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>485897</v>
+        <v>488218</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4060283276837304</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3775645024501375</v>
+        <v>0.378684565123641</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4329401359143079</v>
+        <v>0.4350078600002765</v>
       </c>
     </row>
     <row r="5">
@@ -4790,19 +4790,19 @@
         <v>339929</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>317960</v>
+        <v>318196</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>362164</v>
+        <v>362257</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6815759352400398</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6375275030528109</v>
+        <v>0.6380018425965982</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7261602847438312</v>
+        <v>0.7263462124744697</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>410</v>
@@ -4811,19 +4811,19 @@
         <v>326697</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>302897</v>
+        <v>303063</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>347778</v>
+        <v>348226</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.5239058051705724</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.4857381296478741</v>
+        <v>0.4860054612877333</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.5577125911321533</v>
+        <v>0.5584306759034099</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>694</v>
@@ -4832,19 +4832,19 @@
         <v>666626</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>636423</v>
+        <v>634102</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>698572</v>
+        <v>697315</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.5939716723162697</v>
+        <v>0.5939716723162696</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.567059864085692</v>
+        <v>0.5649921399997238</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6224354975498624</v>
+        <v>0.6213154348763591</v>
       </c>
     </row>
     <row r="6">
@@ -4936,19 +4936,19 @@
         <v>207540</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>182634</v>
+        <v>180392</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>232060</v>
+        <v>231708</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2161564919385459</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.190216319824705</v>
+        <v>0.1878811570832491</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2416947217778197</v>
+        <v>0.2413285684984961</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>667</v>
@@ -4957,19 +4957,19 @@
         <v>419534</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>392110</v>
+        <v>392085</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>448555</v>
+        <v>449997</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.3759777874313758</v>
+        <v>0.3759777874313757</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3514006453118541</v>
+        <v>0.351378469439668</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4019856365103543</v>
+        <v>0.4032773075128081</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>910</v>
@@ -4978,19 +4978,19 @@
         <v>627074</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>589025</v>
+        <v>586850</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>663862</v>
+        <v>666606</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3020609650253472</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2837325164338245</v>
+        <v>0.2826851101407597</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3197817525055777</v>
+        <v>0.3211031785100558</v>
       </c>
     </row>
     <row r="8">
@@ -5007,19 +5007,19 @@
         <v>752597</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>728077</v>
+        <v>728429</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>777503</v>
+        <v>779745</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7838435080614542</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7583052782221802</v>
+        <v>0.7586714315015037</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8097836801752949</v>
+        <v>0.8121188429167507</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>940</v>
@@ -5028,19 +5028,19 @@
         <v>696315</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>667294</v>
+        <v>665852</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>723739</v>
+        <v>723764</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6240222125686241</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5980143634896457</v>
+        <v>0.5967226924871918</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.648599354688146</v>
+        <v>0.6486215305603321</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1607</v>
@@ -5049,19 +5049,19 @@
         <v>1448912</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1412124</v>
+        <v>1409380</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1486961</v>
+        <v>1489136</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.6979390349746528</v>
+        <v>0.6979390349746527</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6802182474944224</v>
+        <v>0.6788968214899448</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7162674835661755</v>
+        <v>0.7173148898592405</v>
       </c>
     </row>
     <row r="9">
@@ -5153,19 +5153,19 @@
         <v>179113</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>155844</v>
+        <v>157037</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>208250</v>
+        <v>207049</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.1711576388239417</v>
+        <v>0.1711576388239418</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1489219304278286</v>
+        <v>0.1500626095438141</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.19900106819556</v>
+        <v>0.1978532040350802</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>552</v>
@@ -5174,19 +5174,19 @@
         <v>363257</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>337963</v>
+        <v>338129</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>390129</v>
+        <v>390949</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.3467378027328926</v>
+        <v>0.3467378027328927</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3225942170114928</v>
+        <v>0.3227524421598094</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3723878121105269</v>
+        <v>0.3731705308809236</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>748</v>
@@ -5195,19 +5195,19 @@
         <v>542370</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>499575</v>
+        <v>503536</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>580547</v>
+        <v>578746</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.2589964493115557</v>
+        <v>0.2589964493115558</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2385605318184348</v>
+        <v>0.2404521080567789</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2772271190085147</v>
+        <v>0.2763671515977358</v>
       </c>
     </row>
     <row r="11">
@@ -5224,19 +5224,19 @@
         <v>867366</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>838229</v>
+        <v>839430</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>890635</v>
+        <v>889442</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8288423611760584</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8009989318044405</v>
+        <v>0.8021467959649198</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8510780695721712</v>
+        <v>0.8499373904561859</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>964</v>
@@ -5245,19 +5245,19 @@
         <v>684385</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>657513</v>
+        <v>656693</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>709679</v>
+        <v>709513</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.6532621972671073</v>
+        <v>0.6532621972671074</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6276121878894731</v>
+        <v>0.6268294691190763</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6774057829885072</v>
+        <v>0.6772475578401908</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1797</v>
@@ -5266,19 +5266,19 @@
         <v>1551751</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1513574</v>
+        <v>1515375</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1594546</v>
+        <v>1590585</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.7410035506884443</v>
+        <v>0.7410035506884444</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7227728809914853</v>
+        <v>0.7236328484022644</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.761439468181565</v>
+        <v>0.7595478919432213</v>
       </c>
     </row>
     <row r="12">
@@ -5370,19 +5370,19 @@
         <v>204787</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>176930</v>
+        <v>180646</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>228869</v>
+        <v>231858</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2098381088311131</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1812934297728919</v>
+        <v>0.1851014439741448</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2345136332655594</v>
+        <v>0.2375767316229544</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>508</v>
@@ -5391,19 +5391,19 @@
         <v>353401</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>326985</v>
+        <v>328039</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>383030</v>
+        <v>381040</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3882057479204898</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3591880958493161</v>
+        <v>0.3603459644670511</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.420752540388399</v>
+        <v>0.418566869738544</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>726</v>
@@ -5412,19 +5412,19 @@
         <v>558188</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>520413</v>
+        <v>517815</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>600638</v>
+        <v>593161</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2959210803027684</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.275894811061357</v>
+        <v>0.2745172291785627</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3184256001800268</v>
+        <v>0.3144616128784625</v>
       </c>
     </row>
     <row r="14">
@@ -5441,19 +5441,19 @@
         <v>771142</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>747060</v>
+        <v>744071</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>798999</v>
+        <v>795283</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7901618911688869</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7654863667344407</v>
+        <v>0.7624232683770457</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8187065702271082</v>
+        <v>0.8148985560258554</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>816</v>
@@ -5462,19 +5462,19 @@
         <v>556944</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>527315</v>
+        <v>529305</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>583360</v>
+        <v>582306</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6117942520795102</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5792474596116005</v>
+        <v>0.5814331302614559</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6408119041506838</v>
+        <v>0.6396540355329489</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1545</v>
@@ -5483,19 +5483,19 @@
         <v>1328086</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1285636</v>
+        <v>1293113</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1365861</v>
+        <v>1368459</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.7040789196972317</v>
+        <v>0.7040789196972316</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6815743998199733</v>
+        <v>0.6855383871215375</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7241051889386431</v>
+        <v>0.725482770821437</v>
       </c>
     </row>
     <row r="15">
@@ -5587,19 +5587,19 @@
         <v>750250</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>705868</v>
+        <v>700381</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>801368</v>
+        <v>806338</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2155096627613004</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2027607090336286</v>
+        <v>0.2011847371446285</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2301933523994346</v>
+        <v>0.2316207747239092</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2178</v>
@@ -5608,19 +5608,19 @@
         <v>1433076</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1380848</v>
+        <v>1379020</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>1485012</v>
+        <v>1482718</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.387588397058674</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3734629036580765</v>
+        <v>0.3729685904489375</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4016351615782175</v>
+        <v>0.4010146981571837</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>3006</v>
@@ -5629,19 +5629,19 @@
         <v>2183326</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2101672</v>
+        <v>2115267</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>2251904</v>
+        <v>2260646</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3041394481866683</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2927650099607698</v>
+        <v>0.2946587847110396</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.313692368112741</v>
+        <v>0.3149101299986485</v>
       </c>
     </row>
     <row r="17">
@@ -5658,19 +5658,19 @@
         <v>2731034</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2679916</v>
+        <v>2674946</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2775416</v>
+        <v>2780903</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.7844903372386997</v>
+        <v>0.7844903372386998</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7698066476005654</v>
+        <v>0.7683792252760909</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7972392909663713</v>
+        <v>0.7988152628553717</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3130</v>
@@ -5679,19 +5679,19 @@
         <v>2264340</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2212404</v>
+        <v>2214698</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2316568</v>
+        <v>2318396</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.6124116029413259</v>
+        <v>0.612411602941326</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.5983648384217823</v>
+        <v>0.5989853018428164</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6265370963419236</v>
+        <v>0.6270314095510622</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>5643</v>
@@ -5700,19 +5700,19 @@
         <v>4995375</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>4926797</v>
+        <v>4918055</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>5077029</v>
+        <v>5063434</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.6958605518133316</v>
+        <v>0.6958605518133317</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.686307631887259</v>
+        <v>0.6850898700013516</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7072349900392295</v>
+        <v>0.7053412152889609</v>
       </c>
     </row>
     <row r="18">
